--- a/PA5/test-cases template-v1.1 (5).xlsx
+++ b/PA5/test-cases template-v1.1 (5).xlsx
@@ -10,14 +10,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="y+b3TTtuu94YvRWeIYC4D2rHuIVFmsUSkrs+QRJjOtQ="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="ljc41t4wnzgo5NXEWKljrXsa2npaCYv6G2XIo+rkgNA="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="221">
   <si>
     <r>
       <rPr>
@@ -326,6 +326,15 @@
     <t>Function 03: Tra cứu chuyến bay</t>
   </si>
   <si>
+    <t>Các chuyến bay xuất hiện đều chưa khởi hành</t>
+  </si>
+  <si>
+    <t>1. Nhấn vào mục tra cứu chuyến bay</t>
+  </si>
+  <si>
+    <t>Chỉ xuất hiện các chuyến bay chưa khởi hành trong trang web</t>
+  </si>
+  <si>
     <t>Tra cứu tất cả chuyến bay</t>
   </si>
   <si>
@@ -333,6 +342,9 @@
   </si>
   <si>
     <t>Hệ thống tự động hiển thị tất cả chuyến bay</t>
+  </si>
+  <si>
+    <t>UI03</t>
   </si>
   <si>
     <t>Tra cứu chuyến bay sử dụng bộ lọc hợp lý</t>
@@ -345,7 +357,7 @@
     <t>Hệ thống tự động hiển thị tất cả chuyến bay có nơi đến là Hồ Chí Minh , nơi đi là Hà nội</t>
   </si>
   <si>
-    <t>UI03</t>
+    <t>UI04</t>
   </si>
   <si>
     <t>Tra cứu chuyến bay sử dụng bộ lọc không hợp lý</t>
@@ -378,7 +390,7 @@
   </si>
   <si>
     <t>1.  Nhấn vào mục quản lý chuyến bay
-2. Nhân vào  nút thêm chuyến bay
+2. Nhân vào nút thêm chuyến bay
 3. Biểu mẫu hiện lên ta điền các thông tin chuyến bay mới với sai định dạng giờ bay: mã chuyến bay CB95, chọn tuyến bay TB01 , Chọn ngày bay 25/06/2025, Điền giờ bay sai định dạng 11, Điền số lượng ghế 180, Điền thời gian bay 120, Thêm hạng ghế Thương gia với số ghế là 180
 4. Nhấn nút thêm chuyến bay. 
 5.Hệ thống hiển thị cảnh báo có chắc chán thêm chuyến bay. Nhấn nút: Đồng ý</t>
@@ -397,9 +409,6 @@
 5.Hệ thống hiển thị cảnh báo có chắc chán thêm chuyến bay. Nhấn nút: Đồng ý</t>
   </si>
   <si>
-    <t>UI04</t>
-  </si>
-  <si>
     <t>Thêm chuyến bay với logic sai, thời gian bay tối thiếu không đúng quy định</t>
   </si>
   <si>
@@ -410,6 +419,19 @@
 5.Hệ thống hiển thị cảnh báo có chắc chán thêm chuyến bay. Nhấn nút: Đồng ý</t>
   </si>
   <si>
+    <t>UI05</t>
+  </si>
+  <si>
+    <t>Thêm chuyến bay với logic sai, số lượng ghế là số âm</t>
+  </si>
+  <si>
+    <t>1.  Nhấn vào mục quản lý chuyến bay
+2. Nhân vào  nút thêm chuyến bay
+3. Biểu mẫu hiện lên ta điền các thông tin chuyến bay mới với thời gian bay tối thiểu không đúng quy định: mã chuyến bay CB94, chọn tuyến bay TB01 , Chọn ngày bay 1/07/2025, Chọn giờ bay 12:00, Điền số lượng ghế -5, Điền thời gian bay 40, Thêm hạng ghế Thương gia với số ghế là -5
+4. Nhấn nút thêm chuyến bay. 
+5.Hệ thống hiển thị cảnh báo có chắc chán thêm chuyến bay. Nhấn nút: Đồng ý</t>
+  </si>
+  <si>
     <t>Fail</t>
   </si>
   <si>
@@ -453,7 +475,7 @@
     <t>Hệ thống hiển thị cập nhật chuyến bay thành công</t>
   </si>
   <si>
-    <t>Sửa chuyến bay sai quy định</t>
+    <t>Sửa chuyến bay sai quy định, thời gian bay dưới mức tối thiểu</t>
   </si>
   <si>
     <t>1. Nhấn vào mục quản lý chuyến bay 
@@ -470,6 +492,14 @@
     <t>1. Nhấn vào mục quản lý chuyến bay 
 2. Nhấn nút sửa ở chuyến bay cần sửa 
 3. Sửa lại 1 hoặc nhiều thông tin sai định dạng</t>
+  </si>
+  <si>
+    <t>Sửa chuyến bay sai logic, số lượng ghế là số âm</t>
+  </si>
+  <si>
+    <t>1. Nhấn vào mục quản lý chuyến bay 
+2. Nhấn nút sửa ở chuyến bay cần sửa 
+3. Sửa lại số lượng sân bay là -5</t>
   </si>
   <si>
     <t>Function 07: Xem phiếu đặt chỗ</t>
@@ -599,9 +629,6 @@
 2. Bấm vào quản lý phiếu đặt chỗ
 3. Nhấn vào nút  sửa phiếu đặt chỗ tại phiếu đặt chỗ cần thiết
 4. Cập nhật 1 trong các  thông tin như Mã chuyến bay, Họ tên , CCCD, Số điện thoại ,Giới tính, Hạng vé</t>
-  </si>
-  <si>
-    <t>UI05</t>
   </si>
   <si>
     <t>Cập nhật phiếu đặt chỗ cho chuyến bay không tồn tại</t>
@@ -971,7 +998,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:J62" displayName="Table_2" name="Table_2" id="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:J65" displayName="Table_2" name="Table_2" id="2">
   <tableColumns count="10">
     <tableColumn name="Function/Feature ID" id="1"/>
     <tableColumn name="Case ID" id="2"/>
@@ -2689,11 +2716,11 @@
       <c r="G10" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="11" t="s">
         <v>72</v>
       </c>
       <c r="I10" s="13">
-        <v>45828.0</v>
+        <v>45831.0</v>
       </c>
       <c r="J10" s="2"/>
     </row>
@@ -2759,46 +2786,46 @@
     </row>
     <row r="13">
       <c r="A13" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="13"/>
+      <c r="C13" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I13" s="13">
+        <v>45828.0</v>
+      </c>
       <c r="J13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="I14" s="13">
-        <v>45828.0</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="B14" s="11"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="13"/>
       <c r="J14" s="2"/>
     </row>
     <row r="15">
@@ -2806,16 +2833,16 @@
         <v>15</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="E15" s="7" t="s">
         <v>106</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>107</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>85</v>
@@ -2836,16 +2863,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>85</v>
@@ -2866,22 +2893,22 @@
         <v>15</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="C17" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>106</v>
-      </c>
       <c r="F17" s="7" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>112</v>
+        <v>71</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>72</v>
@@ -2893,104 +2920,120 @@
     </row>
     <row r="18">
       <c r="A18" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="13"/>
+      <c r="D18" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I18" s="13">
+        <v>45828.0</v>
+      </c>
       <c r="J18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" s="12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>67</v>
+        <v>115</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>72</v>
       </c>
       <c r="I19" s="13">
-        <v>45828.0</v>
+        <v>45832.0</v>
       </c>
       <c r="J19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="I20" s="13">
-        <v>45828.0</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="B20" s="11"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="13"/>
       <c r="J20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="13"/>
+        <v>18</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I21" s="13">
+        <v>45828.0</v>
+      </c>
       <c r="J21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" s="12" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>122</v>
@@ -3011,32 +3054,16 @@
     </row>
     <row r="23">
       <c r="A23" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="E23" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F23" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="I23" s="13">
-        <v>45828.0</v>
-      </c>
+      <c r="B23" s="11"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="13"/>
       <c r="J23" s="2"/>
     </row>
     <row r="24">
@@ -3044,7 +3071,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>126</v>
@@ -3053,10 +3080,10 @@
         <v>127</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>71</v>
@@ -3071,140 +3098,156 @@
     </row>
     <row r="25">
       <c r="A25" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="10"/>
+        <v>21</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I25" s="13">
+        <v>45828.0</v>
+      </c>
       <c r="J25" s="2"/>
     </row>
     <row r="26">
       <c r="A26" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="E26" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="E26" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="F26" s="8" t="s">
+      <c r="F26" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="G26" s="8" t="s">
+      <c r="G26" s="7" t="s">
         <v>71</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="I26" s="10">
-        <v>45809.0</v>
+      <c r="I26" s="13">
+        <v>45828.0</v>
       </c>
       <c r="J26" s="2"/>
     </row>
     <row r="27">
       <c r="A27" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>73</v>
+        <v>21</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>100</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>71</v>
+        <v>131</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>118</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>72</v>
       </c>
       <c r="I27" s="13">
-        <v>45828.0</v>
+        <v>45832.0</v>
       </c>
       <c r="J27" s="2"/>
     </row>
     <row r="28">
       <c r="A28" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="D28" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="I28" s="13">
-        <v>45828.0</v>
-      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="10"/>
       <c r="J28" s="2"/>
     </row>
     <row r="29">
       <c r="A29" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="D29" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="10"/>
+      <c r="E29" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I29" s="10">
+        <v>45809.0</v>
+      </c>
       <c r="J29" s="2"/>
     </row>
     <row r="30">
       <c r="A30" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="D30" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="D30" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F30" s="8" t="s">
-        <v>141</v>
+      <c r="E30" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>142</v>
       </c>
       <c r="G30" s="8" t="s">
         <v>71</v>
@@ -3212,130 +3255,130 @@
       <c r="H30" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="I30" s="10">
-        <v>45809.0</v>
+      <c r="I30" s="13">
+        <v>45828.0</v>
       </c>
       <c r="J30" s="2"/>
     </row>
     <row r="31">
       <c r="A31" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="D31" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="D31" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F31" s="8" t="s">
+      <c r="E31" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>145</v>
       </c>
       <c r="G31" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="H31" s="8" t="s">
+      <c r="H31" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="I31" s="10">
-        <v>45809.0</v>
+      <c r="I31" s="13">
+        <v>45828.0</v>
       </c>
       <c r="J31" s="2"/>
     </row>
     <row r="32">
       <c r="A32" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="C32" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="D32" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="G32" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="H32" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="I32" s="13">
-        <v>45828.0</v>
-      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="10"/>
       <c r="J32" s="2"/>
     </row>
     <row r="33">
       <c r="A33" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B33" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="C33" s="7" t="s">
+      <c r="B33" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D33" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="E33" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="E33" s="8" t="s">
-        <v>144</v>
-      </c>
       <c r="F33" s="8" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="G33" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="H33" s="8" t="s">
+      <c r="H33" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="I33" s="13">
-        <v>45828.0</v>
+      <c r="I33" s="10">
+        <v>45809.0</v>
       </c>
       <c r="J33" s="2"/>
     </row>
     <row r="34">
       <c r="A34" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="10"/>
+      <c r="D34" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="I34" s="10">
+        <v>45809.0</v>
+      </c>
       <c r="J34" s="2"/>
     </row>
     <row r="35">
       <c r="A35" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="D35" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="E35" s="8" t="s">
         <v>152</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>153</v>
       </c>
       <c r="F35" s="8" t="s">
         <v>153</v>
@@ -3346,32 +3389,32 @@
       <c r="H35" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="I35" s="10">
-        <v>45809.0</v>
+      <c r="I35" s="13">
+        <v>45828.0</v>
       </c>
       <c r="J35" s="2"/>
     </row>
     <row r="36">
       <c r="A36" s="12" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F36" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="G36" s="7" t="s">
-        <v>112</v>
+      <c r="G36" s="8" t="s">
+        <v>71</v>
       </c>
       <c r="H36" s="8" t="s">
         <v>72</v>
@@ -3383,52 +3426,36 @@
     </row>
     <row r="37">
       <c r="A37" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="D37" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="E37" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="H37" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="I37" s="13">
-        <v>45828.0</v>
-      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="10"/>
       <c r="J37" s="2"/>
     </row>
     <row r="38">
       <c r="A38" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B38" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="C38" s="7" t="s">
+      <c r="B38" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C38" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="8" t="s">
         <v>160</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="G38" s="8" t="s">
         <v>71</v>
@@ -3436,8 +3463,8 @@
       <c r="H38" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="I38" s="13">
-        <v>45828.0</v>
+      <c r="I38" s="10">
+        <v>45809.0</v>
       </c>
       <c r="J38" s="2"/>
     </row>
@@ -3446,7 +3473,7 @@
         <v>30</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>161</v>
+        <v>73</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>162</v>
@@ -3455,13 +3482,13 @@
         <v>163</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="G39" s="8" t="s">
-        <v>71</v>
+        <v>161</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>118</v>
       </c>
       <c r="H39" s="8" t="s">
         <v>72</v>
@@ -3473,36 +3500,52 @@
     </row>
     <row r="40">
       <c r="A40" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="E40" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="B40" s="2"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="10"/>
+      <c r="F40" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="I40" s="13">
+        <v>45828.0</v>
+      </c>
       <c r="J40" s="2"/>
     </row>
     <row r="41">
       <c r="A41" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>165</v>
+        <v>30</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>167</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>161</v>
       </c>
       <c r="G41" s="8" t="s">
         <v>71</v>
@@ -3510,108 +3553,108 @@
       <c r="H41" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="I41" s="10">
-        <v>45809.0</v>
+      <c r="I41" s="13">
+        <v>45828.0</v>
       </c>
       <c r="J41" s="2"/>
     </row>
     <row r="42">
       <c r="A42" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="B42" s="2"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="10"/>
+        <v>30</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="I42" s="13">
+        <v>45828.0</v>
+      </c>
       <c r="J42" s="2"/>
     </row>
     <row r="43">
       <c r="A43" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="G43" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="H43" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="I43" s="10">
-        <v>45809.0</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="10"/>
       <c r="J43" s="2"/>
     </row>
     <row r="44">
       <c r="A44" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="B44" s="2"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="10"/>
+        <v>33</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H44" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="I44" s="10">
+        <v>45809.0</v>
+      </c>
       <c r="J44" s="2"/>
     </row>
     <row r="45">
       <c r="A45" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="F45" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="G45" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="H45" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="I45" s="10">
-        <v>45809.0</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="10"/>
       <c r="J45" s="2"/>
     </row>
     <row r="46">
       <c r="A46" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B46" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>175</v>
+        <v>36</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="D46" s="7" t="s">
         <v>176</v>
@@ -3628,72 +3671,72 @@
       <c r="H46" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="I46" s="13">
-        <v>45828.0</v>
+      <c r="I46" s="10">
+        <v>45809.0</v>
       </c>
       <c r="J46" s="2"/>
     </row>
     <row r="47">
       <c r="A47" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B47" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="C47" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="D47" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="H47" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="I47" s="13">
-        <v>45828.0</v>
-      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="10"/>
       <c r="J47" s="2"/>
     </row>
     <row r="48">
       <c r="A48" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="E48" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="B48" s="2"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="10"/>
+      <c r="F48" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H48" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="I48" s="10">
+        <v>45809.0</v>
+      </c>
       <c r="J48" s="2"/>
     </row>
     <row r="49">
       <c r="A49" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C49" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C49" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="D49" s="8" t="s">
+      <c r="D49" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="E49" s="8" t="s">
+      <c r="E49" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="F49" s="8" t="s">
+      <c r="F49" s="7" t="s">
         <v>184</v>
       </c>
       <c r="G49" s="8" t="s">
@@ -3702,17 +3745,17 @@
       <c r="H49" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="I49" s="10">
-        <v>45809.0</v>
+      <c r="I49" s="13">
+        <v>45828.0</v>
       </c>
       <c r="J49" s="2"/>
     </row>
     <row r="50">
       <c r="A50" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>73</v>
+        <v>39</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>96</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>185</v>
@@ -3720,85 +3763,85 @@
       <c r="D50" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="E50" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="F50" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="G50" s="8" t="s">
+      <c r="E50" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G50" s="7" t="s">
         <v>71</v>
       </c>
       <c r="H50" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="I50" s="10">
-        <v>45809.0</v>
+      <c r="I50" s="13">
+        <v>45828.0</v>
       </c>
       <c r="J50" s="2"/>
     </row>
     <row r="51">
       <c r="A51" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B51" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="D51" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="E51" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="F51" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="G51" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="H51" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="I51" s="13">
-        <v>45828.0</v>
-      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="10"/>
       <c r="J51" s="2"/>
     </row>
     <row r="52">
       <c r="A52" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="D52" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="B52" s="2"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="10"/>
+      <c r="E52" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H52" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="I52" s="10">
+        <v>45809.0</v>
+      </c>
       <c r="J52" s="2"/>
     </row>
     <row r="53">
       <c r="A53" s="12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>34</v>
+        <v>73</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>192</v>
       </c>
       <c r="D53" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E53" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="E53" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="F53" s="7" t="s">
-        <v>192</v>
+      <c r="F53" s="8" t="s">
+        <v>191</v>
       </c>
       <c r="G53" s="8" t="s">
         <v>71</v>
@@ -3813,57 +3856,57 @@
     </row>
     <row r="54">
       <c r="A54" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="B54" s="2"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="10"/>
+        <v>42</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H54" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="I54" s="13">
+        <v>45828.0</v>
+      </c>
       <c r="J54" s="2"/>
     </row>
     <row r="55">
       <c r="A55" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B55" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="E55" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="G55" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="H55" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="I55" s="13">
-        <v>45828.0</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="10"/>
       <c r="J55" s="2"/>
     </row>
     <row r="56">
       <c r="A56" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B56" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>197</v>
+        <v>45</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="D56" s="7" t="s">
         <v>198</v>
@@ -3880,8 +3923,8 @@
       <c r="H56" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="I56" s="13">
-        <v>45828.0</v>
+      <c r="I56" s="10">
+        <v>45809.0</v>
       </c>
       <c r="J56" s="2"/>
     </row>
@@ -3891,31 +3934,31 @@
       </c>
       <c r="B57" s="2"/>
       <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
       <c r="G57" s="8"/>
       <c r="H57" s="8"/>
       <c r="I57" s="10"/>
       <c r="J57" s="2"/>
     </row>
     <row r="58">
-      <c r="A58" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B58" s="2" t="s">
+      <c r="A58" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B58" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="C58" s="8" t="s">
+      <c r="C58" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="D58" s="8" t="s">
+      <c r="D58" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="E58" s="8" t="s">
+      <c r="E58" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="F58" s="8" t="s">
+      <c r="F58" s="7" t="s">
         <v>203</v>
       </c>
       <c r="G58" s="8" t="s">
@@ -3924,28 +3967,28 @@
       <c r="H58" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="I58" s="10">
-        <v>45810.0</v>
+      <c r="I58" s="13">
+        <v>45828.0</v>
       </c>
       <c r="J58" s="2"/>
     </row>
     <row r="59">
-      <c r="A59" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B59" s="2" t="s">
+      <c r="A59" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B59" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C59" s="8" t="s">
+      <c r="C59" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="D59" s="8" t="s">
+      <c r="D59" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="E59" s="8" t="s">
+      <c r="E59" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="F59" s="8" t="s">
+      <c r="F59" s="7" t="s">
         <v>206</v>
       </c>
       <c r="G59" s="8" t="s">
@@ -3954,8 +3997,8 @@
       <c r="H59" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="I59" s="10">
-        <v>45810.0</v>
+      <c r="I59" s="13">
+        <v>45828.0</v>
       </c>
       <c r="J59" s="2"/>
     </row>
@@ -3975,7 +4018,7 @@
     </row>
     <row r="61">
       <c r="A61" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>67</v>
@@ -4005,10 +4048,10 @@
     </row>
     <row r="62">
       <c r="A62" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C62" s="8" t="s">
         <v>211</v>
@@ -4033,9 +4076,80 @@
       </c>
       <c r="J62" s="2"/>
     </row>
-    <row r="73" ht="15.75" customHeight="1"/>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="63">
+      <c r="A63" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="10"/>
+      <c r="J63" s="2"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="F64" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="G64" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H64" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="I64" s="10">
+        <v>45810.0</v>
+      </c>
+      <c r="J64" s="2"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="F65" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="G65" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H65" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="I65" s="10">
+        <v>45810.0</v>
+      </c>
+      <c r="J65" s="2"/>
+    </row>
     <row r="76" ht="15.75" customHeight="1"/>
     <row r="77" ht="15.75" customHeight="1"/>
     <row r="78" ht="15.75" customHeight="1"/>
@@ -5013,6 +5127,9 @@
     <row r="1050" ht="15.75" customHeight="1"/>
     <row r="1051" ht="15.75" customHeight="1"/>
     <row r="1052" ht="15.75" customHeight="1"/>
+    <row r="1053" ht="15.75" customHeight="1"/>
+    <row r="1054" ht="15.75" customHeight="1"/>
+    <row r="1055" ht="15.75" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
